--- a/data/outputs/management_elsevier/74.xlsx
+++ b/data/outputs/management_elsevier/74.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS47"/>
+  <dimension ref="A1:BU47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84954319163</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>3958</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1141,6 +1157,12 @@
         <is>
           <t>2-s2.0-84954371875</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>8892</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1353,6 +1375,12 @@
           <t>2-s2.0-84954307539</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>5064</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1564,6 +1592,12 @@
           <t>2-s2.0-84954397490</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>14373</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1780,6 +1814,12 @@
         <is>
           <t>2-s2.0-84954386196</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>5405</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1978,6 +2018,12 @@
           <t>2-s2.0-84959197763</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1020</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2175,6 +2221,12 @@
           <t>2-s2.0-84959370109</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1008</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2391,6 +2443,12 @@
         <is>
           <t>2-s2.0-84959249037</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>3805</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2597,6 +2655,12 @@
           <t>2-s2.0-84959199196</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1671</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2809,6 +2873,12 @@
         <is>
           <t>2-s2.0-84959253525</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>4663</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -3023,6 +3093,12 @@
           <t>2-s2.0-84959249707</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2656</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3236,6 +3312,12 @@
           <t>2-s2.0-84959080222</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3132</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3445,6 +3527,12 @@
           <t>2-s2.0-84959143794</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3657,6 +3745,12 @@
         <is>
           <t>2-s2.0-84959208897</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>5571</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3871,6 +3965,12 @@
           <t>2-s2.0-84959249543</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2315</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4084,6 +4184,12 @@
           <t>2-s2.0-84959226507</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2772</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4301,6 +4407,12 @@
           <t>2-s2.0-84959236115</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>5109</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4517,6 +4629,12 @@
         <is>
           <t>2-s2.0-84959236780</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>3353</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -4727,6 +4845,12 @@
           <t>2-s2.0-84959195322</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1748</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4936,6 +5060,12 @@
           <t>2-s2.0-84939236911</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>6207</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5149,6 +5279,12 @@
           <t>2-s2.0-84939245962</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3931</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5356,6 +5492,12 @@
           <t>2-s2.0-84939243965</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>5149</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5577,6 +5719,12 @@
           <t>2-s2.0-84939217685</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>8787</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5778,6 +5926,12 @@
           <t>2-s2.0-84937578823</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>2473</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5979,6 +6133,12 @@
           <t>2-s2.0-84937548817</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>5964</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6180,6 +6340,12 @@
           <t>2-s2.0-84937570759</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>4839</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6393,6 +6559,12 @@
           <t>2-s2.0-84937562100</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>3947</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6596,6 +6768,12 @@
           <t>2-s2.0-84929072189</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>9011</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6803,6 +6981,12 @@
           <t>2-s2.0-84929085198</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3660</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7018,6 +7202,12 @@
           <t>2-s2.0-84929071581</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>4033</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7231,6 +7421,12 @@
           <t>2-s2.0-84929090953</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>3229</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7440,6 +7636,12 @@
           <t>2-s2.0-84929118560</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2607</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7653,6 +7855,12 @@
           <t>2-s2.0-84925720379</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>6084</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7866,6 +8074,12 @@
           <t>2-s2.0-84925812909</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2729</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8075,6 +8289,12 @@
           <t>2-s2.0-84925832817</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>3367</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8280,6 +8500,12 @@
           <t>2-s2.0-84925705783</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2825</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8485,6 +8711,12 @@
           <t>2-s2.0-84925763776</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2903</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8704,6 +8936,12 @@
           <t>2-s2.0-84922388767</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3475</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8909,6 +9147,12 @@
           <t>2-s2.0-85027919508</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>6782</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9116,6 +9360,12 @@
           <t>2-s2.0-84922466105</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>6046</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9317,6 +9567,12 @@
           <t>2-s2.0-84922433206</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>4505</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9520,6 +9776,12 @@
           <t>2-s2.0-84920754521</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>6654</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9731,6 +9993,12 @@
           <t>2-s2.0-84920856249</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>9422</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9938,6 +10206,12 @@
           <t>2-s2.0-84920829027</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>4675</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10141,6 +10415,12 @@
           <t>2-s2.0-84920848928</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>7076</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10360,6 +10640,12 @@
           <t>2-s2.0-84920767963</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>16864</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
